--- a/Examples/ConvertFrom/testSQLGen.xlsx
+++ b/Examples/ConvertFrom/testSQLGen.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\ImportExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\ImportExcel\Examples\ConvertFrom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="SiteName" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>First</t>
   </si>
@@ -51,13 +53,134 @@
   </si>
   <si>
     <t>Jane</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>123-456-7891</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Vice President</t>
+  </si>
+  <si>
+    <t>123-456-7892</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>IT Pro</t>
+  </si>
+  <si>
+    <t>123-456-7893</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>SiteName</t>
+  </si>
+  <si>
+    <t>SiteUrl</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>New Product 2018</t>
+  </si>
+  <si>
+    <t>Marketing Campaign July 2017</t>
+  </si>
+  <si>
+    <t>Project123</t>
+  </si>
+  <si>
+    <t>Marketing2018</t>
+  </si>
+  <si>
+    <t>tempCompany\jane.doe</t>
+  </si>
+  <si>
+    <t>tempCompany\john.doe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,76 +528,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>12345</v>
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>12345</v>
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
